--- a/data/case1/2/P_device_13.xlsx
+++ b/data/case1/2/P_device_13.xlsx
@@ -57,31 +57,31 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.024997831341045707</v>
+        <v>-0.035865884764190649</v>
       </c>
       <c r="B1" s="0">
-        <v>0.024997829801346835</v>
+        <v>0.035865884225674875</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.029808804010000047</v>
+        <v>0.01577272595754594</v>
       </c>
       <c r="B2" s="0">
-        <v>0.029808802419100007</v>
+        <v>-0.01577272649659444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.078650390631736622</v>
+        <v>0.009363491401109373</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.078650392205415739</v>
+        <v>-0.009363491980422578</v>
       </c>
     </row>
     <row r="4">
